--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="313">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:17:44+00:00</t>
+    <t>2024-11-13T16:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -316,10 +316,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -343,9 +339,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Bundle.language</t>
   </si>
   <si>
@@ -388,12 +381,6 @@
   </si>
   <si>
     <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -474,8 +461,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -512,6 +499,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -532,16 +522,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -578,9 +558,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -588,9 +565,6 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -609,8 +583,11 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -659,9 +636,6 @@
     <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
-  </si>
-  <si>
     <t>Bundle.entry.search</t>
   </si>
   <si>
@@ -671,8 +645,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -728,8 +702,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -783,9 +757,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -813,8 +784,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1370,8 +1341,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.08203125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1818,16 +1789,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1838,10 +1809,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1864,16 +1835,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1923,7 +1894,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1932,16 +1903,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -1952,10 +1923,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1978,16 +1949,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2013,32 +1984,32 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
@@ -2046,16 +2017,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2066,10 +2037,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2092,16 +2063,16 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2151,7 +2122,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2160,30 +2131,30 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2206,16 +2177,16 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2226,78 +2197,78 @@
         <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2320,16 +2291,16 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2379,7 +2350,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2388,30 +2359,30 @@
         <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2434,16 +2405,16 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2493,7 +2464,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2502,16 +2473,16 @@
         <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2522,10 +2493,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2548,16 +2519,16 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2607,7 +2578,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2616,16 +2587,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2636,10 +2607,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2662,13 +2633,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2719,7 +2690,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2737,7 +2708,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2748,14 +2719,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2774,16 +2745,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2821,19 +2792,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2842,16 +2813,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2862,14 +2833,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2888,19 +2859,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2949,7 +2920,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2958,10 +2929,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -2978,10 +2949,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3004,17 +2975,15 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3063,7 +3032,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3072,16 +3041,16 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3092,10 +3061,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3118,17 +3087,15 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3177,7 +3144,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3186,16 +3153,16 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3206,10 +3173,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3232,13 +3199,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3277,19 +3244,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3298,16 +3265,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3318,10 +3285,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3344,13 +3311,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3401,7 +3368,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3419,7 +3386,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3430,14 +3397,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3456,16 +3423,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3503,19 +3470,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3524,16 +3491,16 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3544,14 +3511,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3570,19 +3537,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O20" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3631,7 +3598,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3640,10 +3607,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3660,10 +3627,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3689,10 +3656,10 @@
         <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3743,7 +3710,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3755,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3772,10 +3739,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3798,16 +3765,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3857,7 +3824,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3866,16 +3833,16 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3886,10 +3853,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3912,13 +3879,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3969,7 +3936,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3987,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3998,10 +3965,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4024,13 +3991,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4081,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4090,16 +4057,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4110,10 +4077,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4136,13 +4103,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4193,7 +4160,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4211,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4222,14 +4189,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4248,16 +4215,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4295,19 +4262,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4316,16 +4283,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4336,14 +4303,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4362,19 +4329,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4423,7 +4390,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4432,10 +4399,10 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4452,10 +4419,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4478,16 +4445,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4513,13 +4480,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4537,7 +4504,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4546,16 +4513,16 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4566,10 +4533,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4592,16 +4559,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4651,7 +4618,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4660,16 +4627,16 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4680,10 +4647,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4706,13 +4673,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4763,7 +4730,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4772,16 +4739,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4792,10 +4759,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4818,13 +4785,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4875,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4893,7 +4860,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4904,14 +4871,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4930,16 +4897,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4977,19 +4944,19 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4998,16 +4965,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5018,14 +4985,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5044,19 +5011,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5105,7 +5072,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5114,10 +5081,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5134,10 +5101,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5160,17 +5127,15 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5195,13 +5160,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5219,7 +5184,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5228,16 +5193,16 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5248,10 +5213,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5274,16 +5239,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5333,7 +5298,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5342,16 +5307,16 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5362,10 +5327,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5388,17 +5353,15 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5447,7 +5410,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5456,16 +5419,16 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5476,10 +5439,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5502,17 +5465,15 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5561,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5570,16 +5531,16 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5590,10 +5551,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5616,17 +5577,15 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5675,7 +5634,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5684,16 +5643,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5704,10 +5663,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5730,17 +5689,15 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5789,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5798,16 +5755,16 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5818,10 +5775,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5844,13 +5801,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5901,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5910,16 +5867,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -5930,10 +5887,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5956,13 +5913,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6013,7 +5970,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6031,7 +5988,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6042,14 +5999,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6068,16 +6025,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6115,19 +6072,19 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6136,16 +6093,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6156,14 +6113,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6182,19 +6139,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O43" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6243,7 +6200,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6252,10 +6209,10 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6272,10 +6229,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6298,17 +6255,15 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6357,7 +6312,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6366,16 +6321,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6386,10 +6341,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6412,17 +6367,15 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6471,7 +6424,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6480,16 +6433,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6500,10 +6453,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6526,16 +6479,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6585,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6594,16 +6547,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6614,10 +6567,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6640,16 +6593,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6699,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6708,16 +6661,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6728,10 +6681,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6754,16 +6707,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6813,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6831,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6842,13 +6795,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -6870,13 +6823,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6927,7 +6880,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6936,16 +6889,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -6956,10 +6909,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6982,13 +6935,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7039,7 +6992,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7057,7 +7010,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7068,14 +7021,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7094,16 +7047,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7141,19 +7094,19 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7162,16 +7115,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7182,14 +7135,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7208,19 +7161,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O52" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7269,7 +7222,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7278,10 +7231,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7298,10 +7251,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7327,10 +7280,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7381,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7393,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7410,10 +7363,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7436,16 +7389,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7495,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7504,16 +7457,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7524,10 +7477,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7550,16 +7503,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7609,7 +7562,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7627,10 +7580,10 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -7638,10 +7591,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7664,13 +7617,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7721,7 +7674,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7730,16 +7683,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7750,10 +7703,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7776,13 +7729,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7833,7 +7786,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7851,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7862,14 +7815,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7888,16 +7841,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7935,19 +7888,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -7956,16 +7909,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -7976,14 +7929,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8002,19 +7955,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8016,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8072,10 +8025,10 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8092,10 +8045,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8118,16 +8071,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8153,13 +8106,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8177,7 +8130,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8186,16 +8139,16 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8206,10 +8159,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8232,16 +8185,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8291,7 +8244,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8300,16 +8253,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8320,10 +8273,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8346,13 +8299,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8403,7 +8356,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8412,16 +8365,16 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8432,10 +8385,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8458,13 +8411,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8515,7 +8468,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8533,7 +8486,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8544,14 +8497,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8570,16 +8523,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8617,19 +8570,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8638,16 +8591,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8658,14 +8611,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8684,19 +8637,19 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O65" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8745,7 +8698,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8754,10 +8707,10 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -8774,10 +8727,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8800,17 +8753,15 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8820,7 +8771,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -8835,13 +8786,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -8859,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -8868,16 +8819,16 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -8888,10 +8839,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8914,16 +8865,16 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8973,7 +8924,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -8982,16 +8933,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9002,10 +8953,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9028,17 +8979,15 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9087,7 +9036,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9096,16 +9045,16 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9116,10 +9065,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9142,17 +9091,15 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9201,7 +9148,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9210,16 +9157,16 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9230,10 +9177,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9256,17 +9203,15 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9315,7 +9260,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9324,16 +9269,16 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9344,10 +9289,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9370,17 +9315,15 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9429,7 +9372,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9438,16 +9381,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -9458,10 +9401,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9484,13 +9427,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9541,7 +9484,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9550,16 +9493,16 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -9570,10 +9513,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9596,13 +9539,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9653,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -9671,7 +9614,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -9682,14 +9625,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9708,16 +9651,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9755,19 +9698,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9776,16 +9719,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -9796,14 +9739,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9822,19 +9765,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O75" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9883,7 +9826,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9892,10 +9835,10 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -9912,10 +9855,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9938,17 +9881,15 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9997,7 +9938,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -10006,16 +9947,16 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10026,10 +9967,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10052,17 +9993,15 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10111,7 +10050,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10120,16 +10059,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10140,10 +10079,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10166,16 +10105,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10225,7 +10164,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10234,16 +10173,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10254,10 +10193,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10280,16 +10219,16 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10339,7 +10278,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10348,16 +10287,16 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -10368,10 +10307,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10394,16 +10333,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10453,7 +10392,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10471,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -10482,10 +10421,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10508,19 +10447,19 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10569,7 +10508,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10578,16 +10517,16 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:19:43+00:00</t>
+    <t>2024-11-13T16:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:25:20+00:00</t>
+    <t>2024-11-13T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:33:20+00:00</t>
+    <t>2024-11-13T21:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:45:33+00:00</t>
+    <t>2024-11-13T21:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:46:03+00:00</t>
+    <t>2024-11-13T21:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
+bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -316,6 +316,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -339,6 +343,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.language</t>
   </si>
   <si>
@@ -381,6 +388,12 @@
   </si>
   <si>
     <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -461,8 +474,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-1
-</t>
+    <t>ele-1
+bdl-1</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -499,9 +512,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -522,6 +532,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -558,6 +578,9 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -565,6 +588,9 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
+  </si>
+  <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -583,11 +609,8 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -636,6 +659,9 @@
     <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
+    <t>Entity. Role, or Act</t>
+  </si>
+  <si>
     <t>Bundle.entry.search</t>
   </si>
   <si>
@@ -645,8 +671,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-2
-</t>
+    <t>ele-1
+bdl-2</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -702,8 +728,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-3
-</t>
+    <t>ele-1
+bdl-3</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -757,6 +783,9 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+  </si>
+  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -784,8 +813,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-4
-</t>
+    <t>ele-1
+bdl-4</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1341,8 +1370,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.08203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1789,16 +1818,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1809,10 +1838,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1835,16 +1864,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1894,7 +1923,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1903,16 +1932,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -1923,10 +1952,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1949,16 +1978,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1984,13 +2013,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -2008,7 +2037,7 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2017,16 +2046,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2037,10 +2066,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2063,16 +2092,16 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2122,7 +2151,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2131,30 +2160,30 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2177,16 +2206,16 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2197,47 +2226,47 @@
         <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
       </c>
@@ -2245,30 +2274,30 @@
         <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2291,16 +2320,16 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2350,7 +2379,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2359,30 +2388,30 @@
         <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2405,16 +2434,16 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2464,7 +2493,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2473,16 +2502,16 @@
         <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2493,10 +2522,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2519,16 +2548,16 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2578,7 +2607,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2587,16 +2616,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2607,10 +2636,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2633,13 +2662,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2690,7 +2719,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2708,7 +2737,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2719,14 +2748,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2745,16 +2774,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2792,19 +2821,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2813,16 +2842,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2833,14 +2862,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2859,19 +2888,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2920,7 +2949,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2929,10 +2958,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -2949,10 +2978,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2975,15 +3004,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3032,7 +3063,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3041,16 +3072,16 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3061,10 +3092,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3087,15 +3118,17 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3144,7 +3177,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3153,16 +3186,16 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3173,10 +3206,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3199,13 +3232,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3244,19 +3277,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3265,16 +3298,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3285,10 +3318,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3311,13 +3344,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3368,7 +3401,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3386,7 +3419,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3397,14 +3430,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3423,16 +3456,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3470,19 +3503,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3491,16 +3524,16 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3511,14 +3544,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3537,19 +3570,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3598,7 +3631,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3607,10 +3640,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3627,10 +3660,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3656,10 +3689,10 @@
         <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3710,7 +3743,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3722,7 +3755,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3739,10 +3772,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3765,16 +3798,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3824,7 +3857,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3833,16 +3866,16 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3853,10 +3886,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3879,13 +3912,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3936,7 +3969,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3954,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3965,10 +3998,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3991,13 +4024,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4048,7 +4081,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4057,16 +4090,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4077,10 +4110,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4103,13 +4136,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4160,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4178,7 +4211,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4189,14 +4222,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4215,16 +4248,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4262,19 +4295,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4283,16 +4316,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4303,14 +4336,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4329,19 +4362,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4390,7 +4423,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4399,10 +4432,10 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4419,10 +4452,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4445,16 +4478,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4480,13 +4513,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4504,7 +4537,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4513,16 +4546,16 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4533,10 +4566,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4559,16 +4592,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4618,7 +4651,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4627,16 +4660,16 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4647,10 +4680,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4673,13 +4706,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4730,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4739,16 +4772,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4759,10 +4792,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4785,13 +4818,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4842,7 +4875,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4860,7 +4893,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4871,14 +4904,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4897,16 +4930,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4944,19 +4977,19 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4965,16 +4998,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4985,14 +5018,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5011,19 +5044,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5072,7 +5105,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5081,10 +5114,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5101,10 +5134,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5127,15 +5160,17 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5160,13 +5195,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5184,7 +5219,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5193,16 +5228,16 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5213,10 +5248,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5239,16 +5274,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5298,7 +5333,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5307,16 +5342,16 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5327,10 +5362,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5353,15 +5388,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5410,7 +5447,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5419,16 +5456,16 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5439,10 +5476,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5465,15 +5502,17 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5522,7 +5561,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5531,16 +5570,16 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5551,10 +5590,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5577,15 +5616,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5634,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5643,16 +5684,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5663,10 +5704,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5689,15 +5730,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5746,7 +5789,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5755,16 +5798,16 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5775,10 +5818,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5801,13 +5844,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5858,7 +5901,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5867,16 +5910,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -5887,10 +5930,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5913,13 +5956,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5970,7 +6013,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5988,7 +6031,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -5999,14 +6042,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6025,16 +6068,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6072,19 +6115,19 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6093,16 +6136,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6113,14 +6156,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6139,19 +6182,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6200,7 +6243,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6209,10 +6252,10 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6229,10 +6272,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6255,15 +6298,17 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6312,7 +6357,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6321,16 +6366,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6341,10 +6386,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6367,15 +6412,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6424,7 +6471,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6433,16 +6480,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6453,10 +6500,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6479,16 +6526,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6538,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6547,16 +6594,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6567,10 +6614,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6593,16 +6640,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6652,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6661,16 +6708,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6681,10 +6728,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6707,16 +6754,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6766,7 +6813,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6784,7 +6831,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6795,13 +6842,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -6823,13 +6870,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6880,7 +6927,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6889,16 +6936,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -6909,10 +6956,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6935,13 +6982,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6992,7 +7039,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7010,7 +7057,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7021,14 +7068,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7047,16 +7094,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7094,19 +7141,19 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7115,16 +7162,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7135,14 +7182,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7161,19 +7208,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7222,7 +7269,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7231,10 +7278,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7251,10 +7298,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7280,10 +7327,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7334,7 +7381,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7346,7 +7393,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7363,10 +7410,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7389,16 +7436,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7448,7 +7495,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7457,16 +7504,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7477,10 +7524,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7503,16 +7550,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7562,7 +7609,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7580,10 +7627,10 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -7591,10 +7638,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7617,13 +7664,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7674,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7683,16 +7730,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7703,10 +7750,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7729,13 +7776,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7786,7 +7833,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7804,7 +7851,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7815,14 +7862,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7841,16 +7888,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7888,19 +7935,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -7909,16 +7956,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -7929,14 +7976,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7955,19 +8002,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8016,7 +8063,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8025,10 +8072,10 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8045,10 +8092,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8071,16 +8118,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8106,13 +8153,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8130,7 +8177,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8139,16 +8186,16 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8159,10 +8206,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8185,16 +8232,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8244,7 +8291,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8253,16 +8300,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8273,10 +8320,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8299,13 +8346,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8356,7 +8403,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8365,16 +8412,16 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8385,10 +8432,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8411,13 +8458,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8468,7 +8515,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8486,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8497,14 +8544,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8523,16 +8570,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8570,19 +8617,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8591,16 +8638,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8611,14 +8658,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8637,19 +8684,19 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8698,7 +8745,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8707,10 +8754,10 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -8727,10 +8774,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8753,15 +8800,17 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8771,7 +8820,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -8786,13 +8835,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -8810,7 +8859,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -8819,16 +8868,16 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -8839,10 +8888,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8865,16 +8914,16 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8924,7 +8973,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -8933,16 +8982,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -8953,10 +9002,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8979,15 +9028,17 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9036,7 +9087,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9045,16 +9096,16 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9065,10 +9116,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9091,15 +9142,17 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9148,7 +9201,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9157,16 +9210,16 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9177,10 +9230,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9203,15 +9256,17 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9260,7 +9315,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9269,16 +9324,16 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9289,10 +9344,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9315,15 +9370,17 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9372,7 +9429,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9381,16 +9438,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -9401,10 +9458,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9427,13 +9484,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9484,7 +9541,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9493,16 +9550,16 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -9513,10 +9570,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9539,13 +9596,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9596,7 +9653,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -9614,7 +9671,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -9625,14 +9682,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9651,16 +9708,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9698,19 +9755,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9719,16 +9776,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -9739,14 +9796,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9765,19 +9822,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9826,7 +9883,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9835,10 +9892,10 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -9855,10 +9912,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9881,15 +9938,17 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9938,7 +9997,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -9947,16 +10006,16 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -9967,10 +10026,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9993,15 +10052,17 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10050,7 +10111,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10059,16 +10120,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10079,10 +10140,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10105,16 +10166,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10164,7 +10225,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10173,16 +10234,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10193,10 +10254,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10219,16 +10280,16 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10278,7 +10339,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10287,16 +10348,16 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -10307,10 +10368,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10333,16 +10394,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10392,7 +10453,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10410,7 +10471,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -10421,10 +10482,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10447,19 +10508,19 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10508,7 +10569,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10517,16 +10578,16 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="313">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:48:00+00:00</t>
+    <t>2024-11-14T09:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -316,10 +316,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -343,9 +339,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Bundle.language</t>
   </si>
   <si>
@@ -388,12 +381,6 @@
   </si>
   <si>
     <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -474,8 +461,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -512,6 +499,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -532,16 +522,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -578,9 +558,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -588,9 +565,6 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -609,8 +583,11 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -659,9 +636,6 @@
     <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
-  </si>
-  <si>
     <t>Bundle.entry.search</t>
   </si>
   <si>
@@ -671,8 +645,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -728,8 +702,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -783,9 +757,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -813,8 +784,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1370,8 +1341,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.08203125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1818,16 +1789,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1838,10 +1809,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1864,16 +1835,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1923,7 +1894,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1932,16 +1903,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -1952,10 +1923,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1978,16 +1949,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2013,32 +1984,32 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
@@ -2046,16 +2017,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2066,10 +2037,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2092,16 +2063,16 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2151,7 +2122,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2160,30 +2131,30 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2206,16 +2177,16 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2226,78 +2197,78 @@
         <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2320,16 +2291,16 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2379,7 +2350,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2388,30 +2359,30 @@
         <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2434,16 +2405,16 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2493,7 +2464,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2502,16 +2473,16 @@
         <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2522,10 +2493,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2548,16 +2519,16 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2607,7 +2578,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2616,16 +2587,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2636,10 +2607,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2662,13 +2633,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2719,7 +2690,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2737,7 +2708,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2748,14 +2719,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2774,16 +2745,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2821,19 +2792,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2842,16 +2813,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2862,14 +2833,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2888,19 +2859,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2949,7 +2920,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2958,10 +2929,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -2978,10 +2949,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3004,17 +2975,15 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3063,7 +3032,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3072,16 +3041,16 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3092,10 +3061,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3118,17 +3087,15 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3177,7 +3144,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3186,16 +3153,16 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3206,10 +3173,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3232,13 +3199,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3277,19 +3244,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3298,16 +3265,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3318,10 +3285,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3344,13 +3311,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3401,7 +3368,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3419,7 +3386,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3430,14 +3397,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3456,16 +3423,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3503,19 +3470,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3524,16 +3491,16 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3544,14 +3511,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3570,19 +3537,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O20" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3631,7 +3598,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3640,10 +3607,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3660,10 +3627,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3689,10 +3656,10 @@
         <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3743,7 +3710,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3755,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3772,10 +3739,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3798,16 +3765,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3857,7 +3824,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3866,16 +3833,16 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3886,10 +3853,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3912,13 +3879,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3969,7 +3936,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3987,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3998,10 +3965,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4024,13 +3991,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4081,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4090,16 +4057,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4110,10 +4077,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4136,13 +4103,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4193,7 +4160,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4211,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4222,14 +4189,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4248,16 +4215,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4295,19 +4262,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4316,16 +4283,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4336,14 +4303,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4362,19 +4329,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4423,7 +4390,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4432,10 +4399,10 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4452,10 +4419,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4478,16 +4445,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4513,13 +4480,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4537,7 +4504,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4546,16 +4513,16 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4566,10 +4533,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4592,16 +4559,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4651,7 +4618,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4660,16 +4627,16 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4680,10 +4647,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4706,13 +4673,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4763,7 +4730,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4772,16 +4739,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4792,10 +4759,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4818,13 +4785,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4875,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4893,7 +4860,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4904,14 +4871,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4930,16 +4897,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4977,19 +4944,19 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4998,16 +4965,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5018,14 +4985,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5044,19 +5011,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5105,7 +5072,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5114,10 +5081,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5134,10 +5101,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5160,17 +5127,15 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5195,13 +5160,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5219,7 +5184,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5228,16 +5193,16 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5248,10 +5213,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5274,16 +5239,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5333,7 +5298,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5342,16 +5307,16 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5362,10 +5327,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5388,17 +5353,15 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5447,7 +5410,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5456,16 +5419,16 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5476,10 +5439,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5502,17 +5465,15 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5561,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5570,16 +5531,16 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5590,10 +5551,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5616,17 +5577,15 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5675,7 +5634,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5684,16 +5643,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5704,10 +5663,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5730,17 +5689,15 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5789,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5798,16 +5755,16 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5818,10 +5775,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5844,13 +5801,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5901,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5910,16 +5867,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -5930,10 +5887,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5956,13 +5913,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6013,7 +5970,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6031,7 +5988,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6042,14 +5999,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6068,16 +6025,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6115,19 +6072,19 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6136,16 +6093,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6156,14 +6113,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6182,19 +6139,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O43" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6243,7 +6200,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6252,10 +6209,10 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6272,10 +6229,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6298,17 +6255,15 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6357,7 +6312,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6366,16 +6321,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6386,10 +6341,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6412,17 +6367,15 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6471,7 +6424,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6480,16 +6433,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6500,10 +6453,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6526,16 +6479,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6585,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6594,16 +6547,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6614,10 +6567,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6640,16 +6593,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6699,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6708,16 +6661,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6728,10 +6681,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6754,16 +6707,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6813,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6831,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6842,13 +6795,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -6870,13 +6823,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6927,7 +6880,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6936,16 +6889,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -6956,10 +6909,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6982,13 +6935,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7039,7 +6992,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7057,7 +7010,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7068,14 +7021,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7094,16 +7047,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7141,19 +7094,19 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7162,16 +7115,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7182,14 +7135,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7208,19 +7161,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O52" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7269,7 +7222,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7278,10 +7231,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7298,10 +7251,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7327,10 +7280,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7381,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7393,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7410,10 +7363,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7436,16 +7389,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7495,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7504,16 +7457,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7524,10 +7477,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7550,16 +7503,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7609,7 +7562,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7627,10 +7580,10 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -7638,10 +7591,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7664,13 +7617,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7721,7 +7674,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7730,16 +7683,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7750,10 +7703,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7776,13 +7729,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7833,7 +7786,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7851,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7862,14 +7815,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7888,16 +7841,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7935,19 +7888,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -7956,16 +7909,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -7976,14 +7929,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8002,19 +7955,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8016,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8072,10 +8025,10 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8092,10 +8045,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8118,16 +8071,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8153,13 +8106,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8177,7 +8130,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8186,16 +8139,16 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8206,10 +8159,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8232,16 +8185,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8291,7 +8244,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8300,16 +8253,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8320,10 +8273,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8346,13 +8299,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8403,7 +8356,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8412,16 +8365,16 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8432,10 +8385,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8458,13 +8411,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8515,7 +8468,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8533,7 +8486,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8544,14 +8497,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8570,16 +8523,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8617,19 +8570,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8638,16 +8591,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8658,14 +8611,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8684,19 +8637,19 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O65" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8745,7 +8698,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8754,10 +8707,10 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -8774,10 +8727,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8800,17 +8753,15 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8820,7 +8771,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -8835,13 +8786,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -8859,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -8868,16 +8819,16 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -8888,10 +8839,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8914,16 +8865,16 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8973,7 +8924,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -8982,16 +8933,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9002,10 +8953,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9028,17 +8979,15 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9087,7 +9036,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9096,16 +9045,16 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9116,10 +9065,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9142,17 +9091,15 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9201,7 +9148,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9210,16 +9157,16 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9230,10 +9177,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9256,17 +9203,15 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9315,7 +9260,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9324,16 +9269,16 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9344,10 +9289,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9370,17 +9315,15 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9429,7 +9372,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9438,16 +9381,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -9458,10 +9401,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9484,13 +9427,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9541,7 +9484,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9550,16 +9493,16 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -9570,10 +9513,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9596,13 +9539,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9653,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -9671,7 +9614,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -9682,14 +9625,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9708,16 +9651,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9755,19 +9698,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9776,16 +9719,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -9796,14 +9739,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9822,19 +9765,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O75" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9883,7 +9826,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9892,10 +9835,10 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -9912,10 +9855,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9938,17 +9881,15 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9997,7 +9938,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -10006,16 +9947,16 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10026,10 +9967,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10052,17 +9993,15 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10111,7 +10050,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10120,16 +10059,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10140,10 +10079,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10166,16 +10105,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10225,7 +10164,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10234,16 +10173,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10254,10 +10193,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10280,16 +10219,16 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10339,7 +10278,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10348,16 +10287,16 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -10368,10 +10307,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10394,16 +10333,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10453,7 +10392,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10471,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -10482,10 +10421,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10508,19 +10447,19 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10569,7 +10508,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10578,16 +10517,16 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:46:04+00:00</t>
+    <t>2024-11-14T09:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:47:37+00:00</t>
+    <t>2024-11-14T09:50:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:50:14+00:00</t>
+    <t>2024-11-14T09:51:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:51:07+00:00</t>
+    <t>2024-11-14T09:56:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
+bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -316,6 +316,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -339,6 +343,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.language</t>
   </si>
   <si>
@@ -381,6 +388,12 @@
   </si>
   <si>
     <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -461,8 +474,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-1
-</t>
+    <t>ele-1
+bdl-1</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -499,9 +512,6 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -522,6 +532,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -558,6 +578,9 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -565,6 +588,9 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
+  </si>
+  <si>
+    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -583,11 +609,8 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -636,6 +659,9 @@
     <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
+    <t>Entity. Role, or Act</t>
+  </si>
+  <si>
     <t>Bundle.entry.search</t>
   </si>
   <si>
@@ -645,8 +671,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-2
-</t>
+    <t>ele-1
+bdl-2</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -702,8 +728,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-3
-</t>
+    <t>ele-1
+bdl-3</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -757,6 +783,9 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+  </si>
+  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -784,8 +813,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl-4
-</t>
+    <t>ele-1
+bdl-4</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1341,8 +1370,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.08203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1789,16 +1818,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1809,10 +1838,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1835,16 +1864,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1894,7 +1923,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1903,16 +1932,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -1923,10 +1952,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1949,16 +1978,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1984,13 +2013,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -2008,7 +2037,7 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2017,16 +2046,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2037,10 +2066,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2063,16 +2092,16 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2122,7 +2151,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2131,30 +2160,30 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2177,16 +2206,16 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2197,47 +2226,47 @@
         <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
       </c>
@@ -2245,30 +2274,30 @@
         <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2291,16 +2320,16 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2350,7 +2379,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2359,30 +2388,30 @@
         <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2405,16 +2434,16 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2464,7 +2493,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2473,16 +2502,16 @@
         <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2493,10 +2522,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2519,16 +2548,16 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2578,7 +2607,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2587,16 +2616,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2607,10 +2636,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2633,13 +2662,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2690,7 +2719,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2708,7 +2737,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2719,14 +2748,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2745,16 +2774,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2792,19 +2821,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2813,16 +2842,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2833,14 +2862,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2859,19 +2888,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2920,7 +2949,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2929,10 +2958,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -2949,10 +2978,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2975,15 +3004,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3032,7 +3063,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3041,16 +3072,16 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3061,10 +3092,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3087,15 +3118,17 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3144,7 +3177,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3153,16 +3186,16 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3173,10 +3206,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3199,13 +3232,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3244,19 +3277,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3265,16 +3298,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3285,10 +3318,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3311,13 +3344,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3368,7 +3401,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3386,7 +3419,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3397,14 +3430,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3423,16 +3456,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3470,19 +3503,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3491,16 +3524,16 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3511,14 +3544,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3537,19 +3570,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3598,7 +3631,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3607,10 +3640,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3627,10 +3660,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3656,10 +3689,10 @@
         <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3710,7 +3743,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3722,7 +3755,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3739,10 +3772,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3765,16 +3798,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3824,7 +3857,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3833,16 +3866,16 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3853,10 +3886,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3879,13 +3912,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3936,7 +3969,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3954,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3965,10 +3998,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3991,13 +4024,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4048,7 +4081,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4057,16 +4090,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4077,10 +4110,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4103,13 +4136,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4160,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4178,7 +4211,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4189,14 +4222,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4215,16 +4248,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4262,19 +4295,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4283,16 +4316,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4303,14 +4336,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4329,19 +4362,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4390,7 +4423,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4399,10 +4432,10 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4419,10 +4452,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4445,16 +4478,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4480,13 +4513,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4504,7 +4537,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4513,16 +4546,16 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4533,10 +4566,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4559,16 +4592,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4618,7 +4651,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4627,16 +4660,16 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4647,10 +4680,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4673,13 +4706,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4730,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4739,16 +4772,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4759,10 +4792,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4785,13 +4818,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4842,7 +4875,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4860,7 +4893,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4871,14 +4904,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4897,16 +4930,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4944,19 +4977,19 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4965,16 +4998,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -4985,14 +5018,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5011,19 +5044,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5072,7 +5105,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5081,10 +5114,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5101,10 +5134,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5127,15 +5160,17 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5160,13 +5195,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5184,7 +5219,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5193,16 +5228,16 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5213,10 +5248,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5239,16 +5274,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5298,7 +5333,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5307,16 +5342,16 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5327,10 +5362,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5353,15 +5388,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5410,7 +5447,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5419,16 +5456,16 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5439,10 +5476,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5465,15 +5502,17 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5522,7 +5561,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5531,16 +5570,16 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5551,10 +5590,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5577,15 +5616,17 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5634,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5643,16 +5684,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5663,10 +5704,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5689,15 +5730,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5746,7 +5789,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5755,16 +5798,16 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5775,10 +5818,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5801,13 +5844,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5858,7 +5901,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5867,16 +5910,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -5887,10 +5930,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5913,13 +5956,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5970,7 +6013,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5988,7 +6031,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -5999,14 +6042,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6025,16 +6068,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6072,19 +6115,19 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6093,16 +6136,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6113,14 +6156,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6139,19 +6182,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6200,7 +6243,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6209,10 +6252,10 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6229,10 +6272,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6255,15 +6298,17 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6312,7 +6357,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6321,16 +6366,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6341,10 +6386,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6367,15 +6412,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6424,7 +6471,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6433,16 +6480,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6453,10 +6500,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6479,16 +6526,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6538,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6547,16 +6594,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6567,10 +6614,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6593,16 +6640,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6652,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6661,16 +6708,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6681,10 +6728,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6707,16 +6754,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6766,7 +6813,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6784,7 +6831,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6795,13 +6842,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -6823,13 +6870,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6880,7 +6927,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6889,16 +6936,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -6909,10 +6956,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6935,13 +6982,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6992,7 +7039,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7010,7 +7057,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7021,14 +7068,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7047,16 +7094,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7094,19 +7141,19 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7115,16 +7162,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7135,14 +7182,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7161,19 +7208,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7222,7 +7269,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7231,10 +7278,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7251,10 +7298,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7280,10 +7327,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7334,7 +7381,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7346,7 +7393,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7363,10 +7410,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7389,16 +7436,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7448,7 +7495,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7457,16 +7504,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7477,10 +7524,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7503,16 +7550,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7562,7 +7609,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7580,10 +7627,10 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -7591,10 +7638,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7617,13 +7664,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7674,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7683,16 +7730,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7703,10 +7750,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7729,13 +7776,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7786,7 +7833,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7804,7 +7851,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7815,14 +7862,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7841,16 +7888,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7888,19 +7935,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -7909,16 +7956,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -7929,14 +7976,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7955,19 +8002,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8016,7 +8063,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8025,10 +8072,10 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8045,10 +8092,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8071,16 +8118,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8106,13 +8153,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8130,7 +8177,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8139,16 +8186,16 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8159,10 +8206,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8185,16 +8232,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8244,7 +8291,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8253,16 +8300,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8273,10 +8320,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8299,13 +8346,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8356,7 +8403,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8365,16 +8412,16 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8385,10 +8432,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8411,13 +8458,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8468,7 +8515,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8486,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8497,14 +8544,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8523,16 +8570,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8570,19 +8617,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8591,16 +8638,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8611,14 +8658,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8637,19 +8684,19 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8698,7 +8745,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8707,10 +8754,10 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -8727,10 +8774,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8753,15 +8800,17 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8771,7 +8820,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -8786,13 +8835,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -8810,7 +8859,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -8819,16 +8868,16 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -8839,10 +8888,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8865,16 +8914,16 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8924,7 +8973,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -8933,16 +8982,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -8953,10 +9002,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8979,15 +9028,17 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9036,7 +9087,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9045,16 +9096,16 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9065,10 +9116,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9091,15 +9142,17 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9148,7 +9201,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9157,16 +9210,16 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9177,10 +9230,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9203,15 +9256,17 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9260,7 +9315,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9269,16 +9324,16 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9289,10 +9344,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9315,15 +9370,17 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9372,7 +9429,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9381,16 +9438,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -9401,10 +9458,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9427,13 +9484,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9484,7 +9541,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9493,16 +9550,16 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -9513,10 +9570,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9539,13 +9596,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9596,7 +9653,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -9614,7 +9671,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -9625,14 +9682,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9651,16 +9708,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9698,19 +9755,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9719,16 +9776,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -9739,14 +9796,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9765,19 +9822,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9826,7 +9883,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9835,10 +9892,10 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -9855,10 +9912,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9881,15 +9938,17 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9938,7 +9997,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -9947,16 +10006,16 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -9967,10 +10026,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9993,15 +10052,17 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10050,7 +10111,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10059,16 +10120,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10079,10 +10140,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10105,16 +10166,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10164,7 +10225,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10173,16 +10234,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10193,10 +10254,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10219,16 +10280,16 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10278,7 +10339,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10287,16 +10348,16 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -10307,10 +10368,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10333,16 +10394,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10392,7 +10453,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10410,7 +10471,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -10421,10 +10482,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10447,19 +10508,19 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10508,7 +10569,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10517,16 +10578,16 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="313">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:56:36+00:00</t>
+    <t>2024-12-03T16:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,8 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}
-bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}</t>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -316,10 +316,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -343,9 +339,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Bundle.language</t>
   </si>
   <si>
@@ -388,12 +381,6 @@
   </si>
   <si>
     <t>Persistent identity generally only matters for batches of type Document, Message, and Collection. It would not normally be populated for search and history results and servers ignore Bundle.identifier when processing batches and transactions. For Documents  the .identifier SHALL be populated such that the .identifier is globally unique.</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>ClinicalDocument.id</t>
@@ -474,8 +461,8 @@
     <t>Only used if the bundle is a search result set. The total does not include resources such as OperationOutcome and included resources, only the total number of matching resources.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-1</t>
+    <t xml:space="preserve">bdl-1
+</t>
   </si>
   <si>
     <t>Bundle.link</t>
@@ -512,6 +499,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Bundle.link.extension</t>
   </si>
   <si>
@@ -532,16 +522,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -578,9 +558,6 @@
     <t>A name which details the functional use for this link - see [http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1](http://www.iana.org/assignments/link-relations/link-relations.xhtml#link-relations-1).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Bundle.link.url</t>
   </si>
   <si>
@@ -588,9 +565,6 @@
   </si>
   <si>
     <t>The reference details for the link.</t>
-  </si>
-  <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
   </si>
   <si>
     <t>Bundle.entry</t>
@@ -609,8 +583,11 @@
     <t>Slicing based on the profile conformance of the entry</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -659,9 +636,6 @@
     <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
-  </si>
-  <si>
     <t>Bundle.entry.search</t>
   </si>
   <si>
@@ -671,8 +645,8 @@
     <t>Information about the search process that lead to the creation of this entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-2</t>
+    <t xml:space="preserve">bdl-2
+</t>
   </si>
   <si>
     <t>Bundle.entry.search.id</t>
@@ -728,8 +702,8 @@
     <t>Additional information about how this entry should be processed as part of a transaction or batch.  For history, it shows how the entry was processed to create the version contained in the entry.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-3</t>
+    <t xml:space="preserve">bdl-3
+</t>
   </si>
   <si>
     <t>Bundle.entry.request.id</t>
@@ -783,9 +757,6 @@
     <t>Only perform the operation if the last updated date matches. See the API documentation for ["Conditional Read"](http://hl7.org/fhir/R4/http.html#cread).</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Bundle.entry.request.ifMatch</t>
   </si>
   <si>
@@ -813,8 +784,8 @@
     <t>Indicates the results of processing the corresponding 'request' entry in the batch or transaction being responded to or what the results of an operation where when returning history.</t>
   </si>
   <si>
-    <t>ele-1
-bdl-4</t>
+    <t xml:space="preserve">bdl-4
+</t>
   </si>
   <si>
     <t>Bundle.entry.response.id</t>
@@ -1370,8 +1341,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.08203125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1818,16 +1789,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1838,10 +1809,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1864,16 +1835,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1923,7 +1894,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1932,16 +1903,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -1952,10 +1923,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1978,16 +1949,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2013,32 +1984,32 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
@@ -2046,16 +2017,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2066,10 +2037,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2092,16 +2063,16 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2151,7 +2122,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2160,30 +2131,30 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2206,16 +2177,16 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2226,78 +2197,78 @@
         <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2320,16 +2291,16 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2379,7 +2350,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2388,30 +2359,30 @@
         <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2434,16 +2405,16 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2493,7 +2464,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2502,16 +2473,16 @@
         <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2522,10 +2493,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2548,16 +2519,16 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2607,7 +2578,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2616,16 +2587,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2636,10 +2607,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2662,13 +2633,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2719,7 +2690,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2737,7 +2708,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2748,14 +2719,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2774,16 +2745,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2821,19 +2792,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2842,16 +2813,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2862,14 +2833,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2888,19 +2859,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2949,7 +2920,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2958,10 +2929,10 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -2978,10 +2949,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3004,17 +2975,15 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3063,7 +3032,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3072,16 +3041,16 @@
         <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3092,10 +3061,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3118,17 +3087,15 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3177,7 +3144,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>87</v>
@@ -3186,16 +3153,16 @@
         <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3206,10 +3173,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3232,13 +3199,13 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3277,19 +3244,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3298,16 +3265,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3318,10 +3285,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3344,13 +3311,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3401,7 +3368,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3419,7 +3386,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3430,14 +3397,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3456,16 +3423,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3503,19 +3470,19 @@
         <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3524,16 +3491,16 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3544,14 +3511,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3570,19 +3537,19 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O20" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3631,7 +3598,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3640,10 +3607,10 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3660,10 +3627,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3689,10 +3656,10 @@
         <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3743,7 +3710,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3755,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3772,10 +3739,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3798,16 +3765,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3857,7 +3824,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3866,16 +3833,16 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3886,10 +3853,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3912,13 +3879,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3969,7 +3936,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3987,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3998,10 +3965,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4024,13 +3991,13 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4081,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4090,16 +4057,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4110,10 +4077,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4136,13 +4103,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4193,7 +4160,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4211,7 +4178,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4222,14 +4189,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4248,16 +4215,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4295,19 +4262,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4316,16 +4283,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4336,14 +4303,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4362,19 +4329,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O27" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4423,7 +4390,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4432,10 +4399,10 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4452,10 +4419,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4478,16 +4445,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4513,13 +4480,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4537,7 +4504,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4546,16 +4513,16 @@
         <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4566,10 +4533,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4592,16 +4559,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4651,7 +4618,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4660,16 +4627,16 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -4680,10 +4647,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4706,13 +4673,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4763,7 +4730,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4772,16 +4739,16 @@
         <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -4792,10 +4759,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4818,13 +4785,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4875,7 +4842,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4893,7 +4860,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -4904,14 +4871,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4930,16 +4897,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4977,19 +4944,19 @@
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4998,16 +4965,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5018,14 +4985,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5044,19 +5011,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5105,7 +5072,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5114,10 +5081,10 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5134,10 +5101,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5160,17 +5127,15 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5195,13 +5160,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5219,7 +5184,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -5228,16 +5193,16 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5248,10 +5213,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5274,16 +5239,16 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5333,7 +5298,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -5342,16 +5307,16 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5362,10 +5327,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5388,17 +5353,15 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5447,7 +5410,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5456,16 +5419,16 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5476,10 +5439,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5502,17 +5465,15 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5561,7 +5522,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5570,16 +5531,16 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5590,10 +5551,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5616,17 +5577,15 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5675,7 +5634,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5684,16 +5643,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -5704,10 +5663,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5730,17 +5689,15 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5789,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5798,16 +5755,16 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -5818,10 +5775,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5844,13 +5801,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5901,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5910,16 +5867,16 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -5930,10 +5887,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5956,13 +5913,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6013,7 +5970,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6031,7 +5988,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6042,14 +5999,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6068,16 +6025,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6115,19 +6072,19 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6136,16 +6093,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6156,14 +6113,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6182,19 +6139,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O43" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6243,7 +6200,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6252,10 +6209,10 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6272,10 +6229,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6298,17 +6255,15 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6357,7 +6312,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
@@ -6366,16 +6321,16 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6386,10 +6341,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6412,17 +6367,15 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6471,7 +6424,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6480,16 +6433,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6500,10 +6453,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6526,16 +6479,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6585,7 +6538,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6594,16 +6547,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6614,10 +6567,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6640,16 +6593,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6699,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6708,16 +6661,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -6728,10 +6681,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6754,16 +6707,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6813,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -6831,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -6842,13 +6795,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -6870,13 +6823,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6927,7 +6880,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6936,16 +6889,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -6956,10 +6909,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6982,13 +6935,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7039,7 +6992,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7057,7 +7010,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7068,14 +7021,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7094,16 +7047,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7141,19 +7094,19 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7162,16 +7115,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7182,14 +7135,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7208,19 +7161,19 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O52" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7269,7 +7222,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7278,10 +7231,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7298,10 +7251,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7327,10 +7280,10 @@
         <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7381,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7393,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7410,10 +7363,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7436,16 +7389,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7495,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7504,16 +7457,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7524,10 +7477,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7550,16 +7503,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7609,7 +7562,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7627,10 +7580,10 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -7638,10 +7591,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7664,13 +7617,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7721,7 +7674,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7730,16 +7683,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -7750,10 +7703,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7776,13 +7729,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7833,7 +7786,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7851,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -7862,14 +7815,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7888,16 +7841,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7935,19 +7888,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -7956,16 +7909,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -7976,14 +7929,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8002,19 +7955,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8016,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8072,10 +8025,10 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8092,10 +8045,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8118,16 +8071,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8153,13 +8106,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8177,7 +8130,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8186,16 +8139,16 @@
         <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8206,10 +8159,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8232,16 +8185,16 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8291,7 +8244,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8300,16 +8253,16 @@
         <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8320,10 +8273,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8346,13 +8299,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8403,7 +8356,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8412,16 +8365,16 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8432,10 +8385,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8458,13 +8411,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8515,7 +8468,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8533,7 +8486,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8544,14 +8497,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8570,16 +8523,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8617,19 +8570,19 @@
         <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8638,16 +8591,16 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8658,14 +8611,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8684,19 +8637,19 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O65" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8745,7 +8698,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8754,10 +8707,10 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -8774,10 +8727,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8800,17 +8753,15 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8820,7 +8771,7 @@
         <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>77</v>
@@ -8835,13 +8786,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -8859,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -8868,16 +8819,16 @@
         <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -8888,10 +8839,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8914,16 +8865,16 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8973,7 +8924,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -8982,16 +8933,16 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9002,10 +8953,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9028,17 +8979,15 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9087,7 +9036,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9096,16 +9045,16 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9116,10 +9065,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9142,17 +9091,15 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9201,7 +9148,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9210,16 +9157,16 @@
         <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9230,10 +9177,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9256,17 +9203,15 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9315,7 +9260,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9324,16 +9269,16 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9344,10 +9289,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9370,17 +9315,15 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9429,7 +9372,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9438,16 +9381,16 @@
         <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -9458,10 +9401,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9484,13 +9427,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9541,7 +9484,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9550,16 +9493,16 @@
         <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -9570,10 +9513,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9596,13 +9539,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9653,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -9671,7 +9614,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -9682,14 +9625,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9708,16 +9651,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9755,19 +9698,19 @@
         <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9776,16 +9719,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -9796,14 +9739,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9822,19 +9765,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="O75" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9883,7 +9826,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -9892,10 +9835,10 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -9912,10 +9855,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9938,17 +9881,15 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -9997,7 +9938,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -10006,16 +9947,16 @@
         <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10026,10 +9967,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10052,17 +9993,15 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10111,7 +10050,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10120,16 +10059,16 @@
         <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10140,10 +10079,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10166,16 +10105,16 @@
         <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10225,7 +10164,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10234,16 +10173,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10254,10 +10193,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10280,16 +10219,16 @@
         <v>88</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10339,7 +10278,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10348,16 +10287,16 @@
         <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -10368,10 +10307,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10394,16 +10333,16 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10453,7 +10392,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10471,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -10482,10 +10421,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10508,19 +10447,19 @@
         <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10569,7 +10508,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10578,16 +10517,16 @@
         <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:19:25+00:00</t>
+    <t>2024-12-17T16:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T16:29:54+00:00</t>
+    <t>2024-12-17T16:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T16:40:19+00:00</t>
+    <t>2024-12-20T14:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-20T14:27:39+00:00</t>
+    <t>2025-01-13T12:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T12:56:04+00:00</t>
+    <t>2025-01-16T11:13:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T11:13:06+00:00</t>
+    <t>2025-01-20T08:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:56:25+00:00</t>
+    <t>2025-01-24T10:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T10:56:25+00:00</t>
+    <t>2025-01-31T09:33:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T09:33:55+00:00</t>
+    <t>2025-01-31T09:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T09:56:25+00:00</t>
+    <t>2025-01-31T11:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T11:34:31+00:00</t>
+    <t>2025-01-31T14:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:09:56+00:00</t>
+    <t>2025-01-31T14:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:17:20+00:00</t>
+    <t>2025-01-31T14:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:23:20+00:00</t>
+    <t>2025-01-31T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:32:14+00:00</t>
+    <t>2025-01-31T14:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:45:45+00:00</t>
+    <t>2025-02-05T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:48:42+00:00</t>
+    <t>2025-02-06T11:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T11:04:53+00:00</t>
+    <t>2025-02-12T14:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T14:10:39+00:00</t>
+    <t>2025-02-17T08:44:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T08:44:40+00:00</t>
+    <t>2025-02-17T10:37:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/main/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T10:37:22+00:00</t>
+    <t>2025-02-19T16:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
